--- a/data/input/absenteeism_data_27.xlsx
+++ b/data/input/absenteeism_data_27.xlsx
@@ -476,74 +476,74 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>17677</v>
+        <v>40677</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Luana da Conceição</t>
+          <t>Catarina da Rocha</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45079</v>
+        <v>45091</v>
       </c>
       <c r="G2" t="n">
-        <v>11682.32</v>
+        <v>3213.52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>54405</v>
+        <v>92454</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Maria Alice Viana</t>
+          <t>Sra. Ana Julia Azevedo</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45106</v>
+        <v>45098</v>
       </c>
       <c r="G3" t="n">
-        <v>3827</v>
+        <v>12428.79</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>29967</v>
+        <v>68793</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Matheus Cardoso</t>
+          <t>Thales Lopes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -552,148 +552,148 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45090</v>
+        <v>45086</v>
       </c>
       <c r="G4" t="n">
-        <v>6267.23</v>
+        <v>11151.99</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>11249</v>
+        <v>24618</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Alexia Carvalho</t>
+          <t>Augusto Melo</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45092</v>
+        <v>45095</v>
       </c>
       <c r="G5" t="n">
-        <v>7376.2</v>
+        <v>7030.7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>12210</v>
+        <v>76354</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pietro Freitas</t>
+          <t>Leandro Cardoso</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E6" t="n">
         <v>6</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45083</v>
+        <v>45102</v>
       </c>
       <c r="G6" t="n">
-        <v>4934.76</v>
+        <v>3797.56</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>628</v>
+        <v>24140</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Thales Teixeira</t>
+          <t>Nicolas Alves</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45086</v>
+        <v>45085</v>
       </c>
       <c r="G7" t="n">
-        <v>12345.14</v>
+        <v>7303.94</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>68308</v>
+        <v>79311</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Luna Monteiro</t>
+          <t>Laura Mendes</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45095</v>
+        <v>45083</v>
       </c>
       <c r="G8" t="n">
-        <v>9583.73</v>
+        <v>11054.37</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>37893</v>
+        <v>54523</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Evelyn Costela</t>
+          <t>Srta. Yasmin Araújo</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -703,21 +703,21 @@
         <v>45086</v>
       </c>
       <c r="G9" t="n">
-        <v>6892.73</v>
+        <v>7619.83</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>25985</v>
+        <v>4053</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Emanuella Silva</t>
+          <t>Bruna Peixoto</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -729,39 +729,39 @@
         <v>6</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45079</v>
+        <v>45081</v>
       </c>
       <c r="G10" t="n">
-        <v>5176.83</v>
+        <v>4780.59</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>24225</v>
+        <v>76033</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Ana Clara Dias</t>
+          <t>Calebe Freitas</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F11" s="2" t="n">
         <v>45081</v>
       </c>
       <c r="G11" t="n">
-        <v>12196.42</v>
+        <v>6230.6</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_27.xlsx
+++ b/data/input/absenteeism_data_27.xlsx
@@ -476,243 +476,243 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>40677</v>
+        <v>6484</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Catarina da Rocha</t>
+          <t>Diogo Melo</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45091</v>
+        <v>45080</v>
       </c>
       <c r="G2" t="n">
-        <v>3213.52</v>
+        <v>7346.49</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>92454</v>
+        <v>79513</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sra. Ana Julia Azevedo</t>
+          <t>Isis Dias</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45098</v>
+        <v>45096</v>
       </c>
       <c r="G3" t="n">
-        <v>12428.79</v>
+        <v>7125.43</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>68793</v>
+        <v>13652</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Thales Lopes</t>
+          <t>Sra. Eduarda Silveira</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45086</v>
+        <v>45078</v>
       </c>
       <c r="G4" t="n">
-        <v>11151.99</v>
+        <v>3262.91</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>24618</v>
+        <v>54128</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Augusto Melo</t>
+          <t>Samuel Nogueira</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45095</v>
+        <v>45088</v>
       </c>
       <c r="G5" t="n">
-        <v>7030.7</v>
+        <v>10688.13</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>76354</v>
+        <v>44448</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Leandro Cardoso</t>
+          <t>Sabrina Gonçalves</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45102</v>
+        <v>45087</v>
       </c>
       <c r="G6" t="n">
-        <v>3797.56</v>
+        <v>3222.84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>24140</v>
+        <v>36858</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Nicolas Alves</t>
+          <t>Kamilly Silva</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45085</v>
+        <v>45090</v>
       </c>
       <c r="G7" t="n">
-        <v>7303.94</v>
+        <v>5881.92</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>79311</v>
+        <v>48874</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Laura Mendes</t>
+          <t>Caroline Barros</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45083</v>
+        <v>45089</v>
       </c>
       <c r="G8" t="n">
-        <v>11054.37</v>
+        <v>11488.59</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>54523</v>
+        <v>58463</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Srta. Yasmin Araújo</t>
+          <t>Marina Vieira</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45086</v>
+        <v>45092</v>
       </c>
       <c r="G9" t="n">
-        <v>7619.83</v>
+        <v>2618.08</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4053</v>
+        <v>92328</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Bruna Peixoto</t>
+          <t>Sabrina Duarte</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -722,46 +722,46 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45081</v>
+        <v>45098</v>
       </c>
       <c r="G10" t="n">
-        <v>4780.59</v>
+        <v>10775.68</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>76033</v>
+        <v>35981</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Calebe Freitas</t>
+          <t>Sra. Evelyn Almeida</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45081</v>
+        <v>45102</v>
       </c>
       <c r="G11" t="n">
-        <v>6230.6</v>
+        <v>7765.92</v>
       </c>
     </row>
   </sheetData>
